--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/3.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/3.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03809708752960701</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626952483200309</v>
+        <v>-1.626751008752783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01894107323633205</v>
+        <v>0.01933615203577852</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2186539650857642</v>
+        <v>-0.2200878965052691</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04020478361450241</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.650243244138195</v>
+        <v>-1.650273937511061</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01981307982953263</v>
+        <v>0.02015936403621878</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1941732456921746</v>
+        <v>-0.1955804187866174</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04833562640120352</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.70423367401793</v>
+        <v>-1.704215572798035</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02219906453710403</v>
+        <v>-0.02153325444879383</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2045712160074869</v>
+        <v>-0.2058933920693795</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05776074229343064</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.814866755996792</v>
+        <v>-1.814834488604805</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03204612815996113</v>
+        <v>-0.03086876185722821</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2233980587173644</v>
+        <v>-0.2249075430546918</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06328767618529874</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782003597772715</v>
+        <v>-1.781896564472467</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01599113312269411</v>
+        <v>-0.01402990529755345</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.217794550645534</v>
+        <v>-0.2192804246960418</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06283253222489575</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.60640523759085</v>
+        <v>-1.60611561807253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04821625487340354</v>
+        <v>0.05002322882465673</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2006235760512648</v>
+        <v>-0.2021771329239886</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05682503582935602</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.347499554385464</v>
+        <v>-1.346929759463553</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07601658059381629</v>
+        <v>0.07888601745194744</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1894197079458465</v>
+        <v>-0.190904007977233</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04563749453721604</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9402771974181562</v>
+        <v>-0.9393918116624246</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1721277621595576</v>
+        <v>0.1750396975339639</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1620664036558832</v>
+        <v>-0.1638434712438316</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.02949365779217776</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4930936429992669</v>
+        <v>-0.4925159779817496</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1890752260386021</v>
+        <v>0.1914394027587957</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1152629450840072</v>
+        <v>-0.1169439975055563</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.009466738831419382</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.009292107742438384</v>
+        <v>-0.009868198740834437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1600156850211488</v>
+        <v>0.1626789253743895</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05172608923358363</v>
+        <v>-0.05318520495902936</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01432581396870272</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5563395335925703</v>
+        <v>0.5543783057674296</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1284550276199487</v>
+        <v>0.1300605271236754</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04235460766567978</v>
+        <v>0.04081049490768381</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04397478762966946</v>
       </c>
       <c r="E13" t="n">
-        <v>1.133445774321861</v>
+        <v>1.130403195360387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006408732992535976</v>
+        <v>0.008538380863655807</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1425676830615307</v>
+        <v>0.1413100417836114</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.08130260542063596</v>
       </c>
       <c r="E14" t="n">
-        <v>1.750045728823707</v>
+        <v>1.745827357578621</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2036929133378011</v>
+        <v>-0.200499228540682</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2610141959585287</v>
+        <v>0.2601846878816033</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1266646344580168</v>
       </c>
       <c r="E15" t="n">
-        <v>2.401078925623127</v>
+        <v>2.396273445245796</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4776997359929462</v>
+        <v>-0.4743942958382147</v>
       </c>
       <c r="G15" t="n">
-        <v>0.385010700277233</v>
+        <v>0.3842520230607661</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1791570657573588</v>
       </c>
       <c r="E16" t="n">
-        <v>3.032592711299297</v>
+        <v>3.026852263563914</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7136231660082211</v>
+        <v>-0.7103806866183416</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5347455652674461</v>
+        <v>0.5339428155155828</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2385433965832735</v>
       </c>
       <c r="E17" t="n">
-        <v>3.636301449197691</v>
+        <v>3.630167496681982</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9575677974656442</v>
+        <v>-0.9545527638387927</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6977934839856205</v>
+        <v>0.6968097220348075</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.304347793654636</v>
       </c>
       <c r="E18" t="n">
-        <v>4.212412909842319</v>
+        <v>4.205813047666706</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.182233055715816</v>
+        <v>-1.17884970161458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8354603443728212</v>
+        <v>0.8339713222840708</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3754025878242862</v>
       </c>
       <c r="E19" t="n">
-        <v>4.69207792284837</v>
+        <v>4.685089277949795</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.391291127368731</v>
+        <v>-1.388356368717066</v>
       </c>
       <c r="G19" t="n">
-        <v>1.01088162740354</v>
+        <v>1.009494916557674</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4523684769163719</v>
       </c>
       <c r="E20" t="n">
-        <v>5.063810870687711</v>
+        <v>5.056071418668275</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.56653061119094</v>
+        <v>-1.563186607567736</v>
       </c>
       <c r="G20" t="n">
-        <v>1.14415382640407</v>
+        <v>1.142944979718911</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5351365336128889</v>
       </c>
       <c r="E21" t="n">
-        <v>5.398859728886018</v>
+        <v>5.391510633608665</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.784741604034218</v>
+        <v>-1.78079868613536</v>
       </c>
       <c r="G21" t="n">
-        <v>1.277991098269146</v>
+        <v>1.276530408524579</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6188329903502535</v>
       </c>
       <c r="E22" t="n">
-        <v>5.697991044755365</v>
+        <v>5.690256314793293</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.941673671456578</v>
+        <v>-1.936961058207404</v>
       </c>
       <c r="G22" t="n">
-        <v>1.386313520177938</v>
+        <v>1.384808757897974</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.698755402352577</v>
       </c>
       <c r="E23" t="n">
-        <v>5.863245738281602</v>
+        <v>5.855537766644593</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.073764569106571</v>
+        <v>-2.068560861891551</v>
       </c>
       <c r="G23" t="n">
-        <v>1.497401493682855</v>
+        <v>1.49570155303185</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7746274011944387</v>
       </c>
       <c r="E24" t="n">
-        <v>6.025533405764189</v>
+        <v>6.017666458195928</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.168575610878118</v>
+        <v>-2.16308307115434</v>
       </c>
       <c r="G24" t="n">
-        <v>1.533540972707919</v>
+        <v>1.532409252959704</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8477031974973627</v>
       </c>
       <c r="E25" t="n">
-        <v>6.118967180804598</v>
+        <v>6.111463831653357</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.200559679422948</v>
+        <v>-2.195544854502484</v>
       </c>
       <c r="G25" t="n">
-        <v>1.604017678864157</v>
+        <v>1.603057527200164</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9178374223570825</v>
       </c>
       <c r="E26" t="n">
-        <v>6.17122461563178</v>
+        <v>6.164121067337351</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.219566747322215</v>
+        <v>-2.215048525434521</v>
       </c>
       <c r="G26" t="n">
-        <v>1.675671751323128</v>
+        <v>1.674483366886546</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9831453197965553</v>
       </c>
       <c r="E27" t="n">
-        <v>6.157812398699177</v>
+        <v>6.151240868867746</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.207899330585573</v>
+        <v>-2.204212977803487</v>
       </c>
       <c r="G27" t="n">
-        <v>1.646446938297939</v>
+        <v>1.645500952806037</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.041747712031028</v>
       </c>
       <c r="E28" t="n">
-        <v>6.09652166813485</v>
+        <v>6.089792736391289</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.216926330246233</v>
+        <v>-2.214071059560193</v>
       </c>
       <c r="G28" t="n">
-        <v>1.636916252518463</v>
+        <v>1.636469231088014</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.091541282740748</v>
       </c>
       <c r="E29" t="n">
-        <v>5.994282830129885</v>
+        <v>5.987610563074691</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.162882383716374</v>
+        <v>-2.161024254143678</v>
       </c>
       <c r="G29" t="n">
-        <v>1.608793252878183</v>
+        <v>1.60871612594124</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.131254838022724</v>
       </c>
       <c r="E30" t="n">
-        <v>5.862002263175775</v>
+        <v>5.855359902483886</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.158305923121192</v>
+        <v>-2.156921573304008</v>
       </c>
       <c r="G30" t="n">
-        <v>1.542256316582561</v>
+        <v>1.542487697393392</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.161510386260748</v>
       </c>
       <c r="E31" t="n">
-        <v>5.661214087986174</v>
+        <v>5.654902271309759</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.093962382471102</v>
+        <v>-2.093823868788427</v>
       </c>
       <c r="G31" t="n">
-        <v>1.476874710321973</v>
+        <v>1.477565704716224</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.183758122951078</v>
       </c>
       <c r="E32" t="n">
-        <v>5.472045321950015</v>
+        <v>5.466843188754116</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.015068609063708</v>
+        <v>-2.015477854035246</v>
       </c>
       <c r="G32" t="n">
-        <v>1.432764398466642</v>
+        <v>1.433394006115163</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.198446042805503</v>
       </c>
       <c r="E33" t="n">
-        <v>5.200453044626945</v>
+        <v>5.196023754819604</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.977053686255615</v>
+        <v>-1.978039022225549</v>
       </c>
       <c r="G33" t="n">
-        <v>1.371048682739564</v>
+        <v>1.372106423589078</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.205225574890237</v>
       </c>
       <c r="E34" t="n">
-        <v>4.965488192256542</v>
+        <v>4.962404688797914</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.905308320687608</v>
+        <v>-1.906733595001946</v>
       </c>
       <c r="G34" t="n">
-        <v>1.27526174911281</v>
+        <v>1.276357266421236</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.20362038211319</v>
       </c>
       <c r="E35" t="n">
-        <v>4.66670158657476</v>
+        <v>4.664896186642628</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.867943467776612</v>
+        <v>-1.869570216538476</v>
       </c>
       <c r="G35" t="n">
-        <v>1.188681253326545</v>
+        <v>1.189828713265973</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.192877586066769</v>
       </c>
       <c r="E36" t="n">
-        <v>4.282236398063218</v>
+        <v>4.282159271126274</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.826151686086957</v>
+        <v>-1.828241983480044</v>
       </c>
       <c r="G36" t="n">
-        <v>1.138278013024254</v>
+        <v>1.139587596933176</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.172099801382149</v>
       </c>
       <c r="E37" t="n">
-        <v>3.967634048250607</v>
+        <v>3.967706453130187</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.785192560512471</v>
+        <v>-1.787198647882568</v>
       </c>
       <c r="G37" t="n">
-        <v>1.054889628015986</v>
+        <v>1.056314115320763</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.140425596138449</v>
       </c>
       <c r="E38" t="n">
-        <v>3.674159757103215</v>
+        <v>3.675360733692768</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.707491893599023</v>
+        <v>-1.709586126039913</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9743927161335477</v>
+        <v>0.9761870979318306</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.097142424471407</v>
       </c>
       <c r="E39" t="n">
-        <v>3.323145622957556</v>
+        <v>3.32542637666432</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.673973943420485</v>
+        <v>-1.675629811536093</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8908705394999693</v>
+        <v>0.8926255708202196</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.042818895919251</v>
       </c>
       <c r="E40" t="n">
-        <v>2.989733744645401</v>
+        <v>2.99239541097952</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.640622052259245</v>
+        <v>-1.641464152489141</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8296411956813726</v>
+        <v>0.8313978010207441</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9795605376658215</v>
       </c>
       <c r="E41" t="n">
-        <v>2.66495378719446</v>
+        <v>2.66817265629752</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.619218540247798</v>
+        <v>-1.620316418584905</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7768596124867967</v>
+        <v>0.7784052992639139</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9092860296889956</v>
       </c>
       <c r="E42" t="n">
-        <v>2.328511922073802</v>
+        <v>2.331738661272468</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.569370141685766</v>
+        <v>-1.570026507659348</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7115362449336968</v>
+        <v>0.7137367236652752</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8338921944774171</v>
       </c>
       <c r="E43" t="n">
-        <v>2.069802991258578</v>
+        <v>2.072991953998333</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.517380290109204</v>
+        <v>-1.517976843356177</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6357629644342817</v>
+        <v>0.6379492769937684</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7560800645544007</v>
       </c>
       <c r="E44" t="n">
-        <v>1.817594759414326</v>
+        <v>1.820568081534463</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.502340537405176</v>
+        <v>-1.502462523887077</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5526956793267592</v>
+        <v>0.5546285748077164</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6783871307149167</v>
       </c>
       <c r="E45" t="n">
-        <v>1.593051487646055</v>
+        <v>1.595713153980175</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.42776351143795</v>
+        <v>-1.427341674313441</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4999188181895471</v>
+        <v>0.5014928373108478</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.602471000403231</v>
       </c>
       <c r="E46" t="n">
-        <v>1.378093992326506</v>
+        <v>1.381079906599613</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.363445942103361</v>
+        <v>-1.363301919353762</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4367738931003274</v>
+        <v>0.4384801298278174</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5287788271776535</v>
       </c>
       <c r="E47" t="n">
-        <v>1.229668711245215</v>
+        <v>1.232108440883231</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.316022319997692</v>
+        <v>-1.315927878850415</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3725523389321381</v>
+        <v>0.3742129291051103</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4576821307155312</v>
       </c>
       <c r="E48" t="n">
-        <v>1.019294759606892</v>
+        <v>1.021693564747755</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.239912199406319</v>
+        <v>-1.239595034553377</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2879519592004687</v>
+        <v>0.2894299631553701</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3899054450865158</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8624563463222493</v>
+        <v>0.8647402480672567</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.16985811738415</v>
+        <v>-1.169440215307445</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2450882704892084</v>
+        <v>0.2463663740157045</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3266341111963824</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7661940589208632</v>
+        <v>0.7681946372240364</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.095823341004212</v>
+        <v>-1.095706863589235</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2077430928172282</v>
+        <v>0.2089944380186623</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2686950575666495</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6318656930899412</v>
+        <v>0.6333924916376028</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.063795986933546</v>
+        <v>-1.063650390164825</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1658206675405057</v>
+        <v>0.167109789200851</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2157777105418782</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4606501891513375</v>
+        <v>0.4620589362649017</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.028557633855427</v>
+        <v>-1.028225515820832</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1228641117010887</v>
+        <v>0.1241374931702209</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1669854986884597</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4036754190176166</v>
+        <v>0.4046025162800627</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.031205134017454</v>
+        <v>-1.03063140404774</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09645836692214832</v>
+        <v>0.09766406556906465</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1218259649690017</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2462530446389709</v>
+        <v>0.2471187551556863</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9710634374116763</v>
+        <v>-0.9703771650747892</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05218120903995998</v>
+        <v>0.05301386515512804</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.08003303246549773</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1279859699218011</v>
+        <v>0.1288894568974277</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9505146177830959</v>
+        <v>-0.9493498436333334</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02562121038713217</v>
+        <v>0.02619100530904302</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.04100523747030967</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04130316289265092</v>
+        <v>0.04212637489309119</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9356842096222008</v>
+        <v>-0.9344249943251602</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008294179619533749</v>
+        <v>-0.007962061584939303</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.004187510080929627</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06822180962481483</v>
+        <v>-0.06793533814473811</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9376060869693089</v>
+        <v>-0.9361076207658307</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04927691548083975</v>
+        <v>-0.04907071897594937</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03045060028675586</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1253791659766067</v>
+        <v>-0.1249116822975804</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9185525855059641</v>
+        <v>-0.9169116705720082</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0795972458144549</v>
+        <v>-0.07946030615090174</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06207832986077057</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2053786878167142</v>
+        <v>-0.2049253703097796</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9312399666332083</v>
+        <v>-0.9290937915613148</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1054221775376353</v>
+        <v>-0.1050695972544639</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09077566322473785</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3001881555691398</v>
+        <v>-0.2994357744291581</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.928346132478697</v>
+        <v>-0.925899319754635</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1244583647906458</v>
+        <v>-0.1242301320180572</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1174530617811258</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3937321119480397</v>
+        <v>-0.3930017670757561</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9098679350041875</v>
+        <v>-0.9072810345783299</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1490240812167856</v>
+        <v>-0.1484385461036618</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1434044712247117</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5040566861791261</v>
+        <v>-0.5029737610236713</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9009700049114747</v>
+        <v>-0.8977653019805065</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1769723647346007</v>
+        <v>-0.17652376928503</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1695588178716171</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.566935602036846</v>
+        <v>-0.5660431331950686</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9113128845575416</v>
+        <v>-0.9081310049038323</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1991439980772421</v>
+        <v>-0.1986119796142425</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1964030231541435</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.689098374079235</v>
+        <v>-0.6878769352411057</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9345942013807</v>
+        <v>-0.9312368185949657</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.236503341921314</v>
+        <v>-0.2358233656609121</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2239984769697486</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8142643746050657</v>
+        <v>-0.8124243462522652</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9690384618121231</v>
+        <v>-0.9656858010837526</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2839741846006214</v>
+        <v>-0.2830077368601428</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2523500853410759</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9112939963280859</v>
+        <v>-0.9093304074742634</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9975226988407409</v>
+        <v>-0.9941590199785213</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3129078040883707</v>
+        <v>-0.311606090275055</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2798349999594568</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9547377110855456</v>
+        <v>-0.9527489379257822</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.036856649672484</v>
+        <v>-1.033364688251879</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3536717512918159</v>
+        <v>-0.3523086507327695</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3048524205890941</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.001408952051232</v>
+        <v>-0.9992572679124143</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.051964085198728</v>
+        <v>-1.047737056848475</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.379107900292035</v>
+        <v>-0.3771907450022907</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3270582722410453</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.072554616334023</v>
+        <v>-1.069492362133533</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.101725125699528</v>
+        <v>-1.097480783138941</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3995056140849706</v>
+        <v>-0.3975176279347678</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3465814435905271</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.103672187352577</v>
+        <v>-1.100151893587788</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.149947562509257</v>
+        <v>-1.145101157634772</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4141156595688836</v>
+        <v>-0.411976567583036</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3632607863443567</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.12577298983476</v>
+        <v>-1.122082702004871</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.160375439187874</v>
+        <v>-1.155299227521679</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4448782892755842</v>
+        <v>-0.4424967983450563</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3759002082496409</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.158703830881053</v>
+        <v>-1.153856638997007</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.205298731919356</v>
+        <v>-1.19973614834468</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4239202246754656</v>
+        <v>-0.4214332744638105</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3832976152046358</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.135079377889451</v>
+        <v>-1.130171586269235</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.227501845644424</v>
+        <v>-1.222331979840512</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4319854986530103</v>
+        <v>-0.4294954004031126</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.385023157282437</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.142756656153595</v>
+        <v>-1.137254672315088</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.250955517561365</v>
+        <v>-1.245488949153087</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4362684046820695</v>
+        <v>-0.4335721099272814</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3815974037168543</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.103745379241718</v>
+        <v>-1.097996274401167</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.266661867363263</v>
+        <v>-1.261558897372007</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4447665339179719</v>
+        <v>-0.4418845049068703</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3738191047624142</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.01677531372293</v>
+        <v>-1.010670480560966</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.286824265297565</v>
+        <v>-1.281121594021092</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4190722457818594</v>
+        <v>-0.4161036457190864</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3631364185784218</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9593417170153501</v>
+        <v>-0.9524892247707676</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.296309304522523</v>
+        <v>-1.29037682645434</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4025167126640188</v>
+        <v>-0.3995213542761836</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3509873416526314</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.806968795977837</v>
+        <v>-0.8009025262843442</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.281345104736317</v>
+        <v>-1.275849416974296</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3594059029507143</v>
+        <v>-0.3563428617406632</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3375041010549185</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6932002679093446</v>
+        <v>-0.6873417687398635</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.298721488825916</v>
+        <v>-1.293707450915013</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3437869112100476</v>
+        <v>-0.3408183111472745</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3217802179812601</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5309676910960041</v>
+        <v>-0.5257450956515284</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.290237525762105</v>
+        <v>-1.285890871958633</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.322148870349527</v>
+        <v>-0.3191078654071741</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3028537567210861</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3846484475990134</v>
+        <v>-0.3797705623421025</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.302527467061221</v>
+        <v>-1.298818291001876</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.297959344493378</v>
+        <v>-0.2951024997882173</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2795787806430423</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2205679723372658</v>
+        <v>-0.2161166462622275</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.313459816868215</v>
+        <v>-1.309882858415059</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2721123765024994</v>
+        <v>-0.2693216406004333</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2515816517830948</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.02410992375036306</v>
+        <v>-0.01991201475385412</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.28732637739726</v>
+        <v>-1.284667859101383</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2053456334151668</v>
+        <v>-0.202959420427275</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2186447490649769</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1419522415851021</v>
+        <v>0.1458699751780195</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.286093133415721</v>
+        <v>-1.28342989306248</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1829646555293924</v>
+        <v>-0.1803470617306693</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1816126093927313</v>
       </c>
       <c r="E85" t="n">
-        <v>0.315163601769515</v>
+        <v>0.3186311658937404</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.20024455652086</v>
+        <v>-1.19832031814507</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1361989734164276</v>
+        <v>-0.1338048903329293</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1418600766559831</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5247001752353051</v>
+        <v>0.5271194426247443</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.128269384161143</v>
+        <v>-1.126580461643988</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07975622174570628</v>
+        <v>-0.07801850463579031</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1007916251032109</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7174403906576957</v>
+        <v>0.7192882891061027</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.041104140271314</v>
+        <v>-1.040036955307073</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03223501045451721</v>
+        <v>-0.03068774965827863</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05987091003273461</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8787206859026494</v>
+        <v>0.8800822124425745</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9118330978771315</v>
+        <v>-0.9114639903931865</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.006767381071872081</v>
+        <v>-0.005399558455461784</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02064633853846953</v>
       </c>
       <c r="E89" t="n">
-        <v>1.020716098873427</v>
+        <v>1.021742359340515</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8009261365711637</v>
+        <v>-0.8011071487701132</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02619415334728562</v>
+        <v>0.02755095782984681</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01467328379117676</v>
       </c>
       <c r="E90" t="n">
-        <v>1.129090463413222</v>
+        <v>1.128950375711426</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6540858927450225</v>
+        <v>-0.654370790205978</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0453688542829706</v>
+        <v>0.04645650149578937</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04356679642284746</v>
       </c>
       <c r="E91" t="n">
-        <v>1.2302070257847</v>
+        <v>1.229837131291194</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4769174484896597</v>
+        <v>-0.4778949143639875</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02051509235763274</v>
+        <v>0.02150987244229477</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0637047547957105</v>
       </c>
       <c r="E92" t="n">
-        <v>1.269837679220808</v>
+        <v>1.269038077507187</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3250576576856907</v>
+        <v>-0.3262413200649088</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04809348138194209</v>
+        <v>0.04896233993690007</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07334797959036994</v>
       </c>
       <c r="E93" t="n">
-        <v>1.303304473777903</v>
+        <v>1.301760361019907</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2159828546369169</v>
+        <v>-0.2173475292150846</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03867612497920007</v>
+        <v>0.03915305277295419</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07218061864836607</v>
       </c>
       <c r="E94" t="n">
-        <v>1.256922852330536</v>
+        <v>1.254996252926064</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0862159962195243</v>
+        <v>-0.08795843538680416</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0552159179058277</v>
+        <v>0.05575738048355514</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0623265562782824</v>
       </c>
       <c r="E95" t="n">
-        <v>1.228034879397304</v>
+        <v>1.225692738944809</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.001067857833642291</v>
+        <v>-0.002448272603022994</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01217279101473909</v>
+        <v>0.01255842569945776</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04712072642274959</v>
       </c>
       <c r="E96" t="n">
-        <v>1.140335256015794</v>
+        <v>1.137654701452219</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07528938375977537</v>
+        <v>0.07403961257746262</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03045636884744743</v>
+        <v>-0.02980315091210765</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03148400429166448</v>
       </c>
       <c r="E97" t="n">
-        <v>1.076889693274406</v>
+        <v>1.074352374450869</v>
       </c>
       <c r="F97" t="n">
-        <v>0.122798002897994</v>
+        <v>0.1215403616200748</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01654046579602805</v>
+        <v>-0.01601789144775622</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.0193103498291364</v>
       </c>
       <c r="E98" t="n">
-        <v>0.975828221572174</v>
+        <v>0.973404232125371</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117704477021465</v>
+        <v>0.11669395674559</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07001776544221892</v>
+        <v>-0.06934408525830223</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.01168886381835166</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9142148170879798</v>
+        <v>0.9122236828995345</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1304933823820331</v>
+        <v>0.1294592518193385</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.06342577336221164</v>
+        <v>-0.06246719571733952</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.006648484851326002</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8589305434905358</v>
+        <v>0.8574792978606965</v>
       </c>
       <c r="F100" t="n">
-        <v>0.12209126831253</v>
+        <v>0.1212287058340572</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.07032942122823646</v>
+        <v>-0.06964787094871326</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.00348677839076639</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7784682600287659</v>
+        <v>0.7769839599973793</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1162485093342619</v>
+        <v>0.1154174272382151</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06713101437375346</v>
+        <v>-0.06667140079033365</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.00489248041421044</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7539119877173539</v>
+        <v>0.752608699884917</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1141204354822633</v>
+        <v>0.1134735136234088</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06542792568450612</v>
+        <v>-0.06519339683543231</v>
       </c>
     </row>
   </sheetData>
